--- a/Shorthand Notes.xlsx
+++ b/Shorthand Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46a2e6c38b4231b1/History/0. Public/Blender project/User's exp/00. Presets Relevant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_F25DC773A252ABDACC1048DFD1997CD25BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A413A87-E4DE-4698-95AB-7DC9C3B53910}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC1048DFD1997CD25BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D32ED21-9880-46E6-9301-66B77D8127D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>G_SDF Grid Smooth</t>
   </si>
   <si>
-    <t>gset</t>
-  </si>
-  <si>
     <t>G_Set Curve Radius</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>This file includes shorthands for quickly searching in Blender to access Bradley's assets and some blender nodes.</t>
+  </si>
+  <si>
+    <t>gsetc</t>
   </si>
 </sst>
 </file>
@@ -165,9 +165,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +182,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,37 +464,31 @@
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -499,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -507,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -515,7 +512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -523,21 +520,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -545,7 +536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -553,7 +544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -561,7 +552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -569,47 +560,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Shorthand Notes.xlsx
+++ b/Shorthand Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46a2e6c38b4231b1/History/0. Public/Blender project/User's exp/00. Presets Relevant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_F25DC773A252ABDACC1048DFD1997CD25BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D32ED21-9880-46E6-9301-66B77D8127D5}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC1048DFD1997CD25BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F36B5066-6F8A-4C75-9017-8569478D8A53}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="555" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Node Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>G_SDF Grid Smooth</t>
   </si>
   <si>
-    <t>G_Set Curve Radius</t>
-  </si>
-  <si>
     <t>grr</t>
   </si>
   <si>
@@ -129,7 +126,22 @@
     <t>This file includes shorthands for quickly searching in Blender to access Bradley's assets and some blender nodes.</t>
   </si>
   <si>
-    <t>gsetc</t>
+    <t>G_Text Mesh</t>
+  </si>
+  <si>
+    <t>gtx</t>
+  </si>
+  <si>
+    <t>G_Delay Falloff</t>
+  </si>
+  <si>
+    <t>gdf</t>
+  </si>
+  <si>
+    <t>G_Set Geo Radius</t>
+  </si>
+  <si>
+    <t>gsetg</t>
   </si>
 </sst>
 </file>
@@ -182,10 +194,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -469,15 +477,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,45 +570,61 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
